--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\pipenv\TimeManagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83710557-A0FB-4A65-8E20-799EC9392FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D6D21-4B34-4F6B-BF75-DE2AA01E39FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B9F310CC-F0E0-405B-8717-4BEB3E80AF7B}"/>
   </bookViews>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD59C1A2-92B6-4584-ADD1-BEC4F87CA089}">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>39</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>39</v>
@@ -1985,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>39</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>39</v>
@@ -2657,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="C98" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>39</v>
@@ -2993,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="C122" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>39</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -3329,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="C146" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>39</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\pipenv\TimeManagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D6D21-4B34-4F6B-BF75-DE2AA01E39FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA9BED1-672B-40D9-BAF7-CAF7E3812425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B9F310CC-F0E0-405B-8717-4BEB3E80AF7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B9F310CC-F0E0-405B-8717-4BEB3E80AF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Huaman" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="data2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,30 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="25">
   <si>
     <t>Horas</t>
-  </si>
-  <si>
-    <t>Dormir</t>
-  </si>
-  <si>
-    <t>Valer verga</t>
-  </si>
-  <si>
-    <t>ortografia e idioma</t>
-  </si>
-  <si>
-    <t>Reto de programacion</t>
-  </si>
-  <si>
-    <t>Trabajo</t>
-  </si>
-  <si>
-    <t>Comida</t>
-  </si>
-  <si>
-    <t>Trabajo y break</t>
   </si>
   <si>
     <t>Lunes</t>
@@ -82,58 +62,10 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>Box</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
     <t>Salir</t>
-  </si>
-  <si>
-    <t>| Box</t>
-  </si>
-  <si>
-    <t>12 to 1</t>
-  </si>
-  <si>
-    <t>1 a 2</t>
-  </si>
-  <si>
-    <t>2 a 3</t>
-  </si>
-  <si>
-    <t>3 a 4</t>
-  </si>
-  <si>
-    <t>4 a 5</t>
-  </si>
-  <si>
-    <t>5 a 6</t>
-  </si>
-  <si>
-    <t>6 a 7</t>
-  </si>
-  <si>
-    <t>7 a 8</t>
-  </si>
-  <si>
-    <t>8 a 9</t>
-  </si>
-  <si>
-    <t>9 a 10</t>
-  </si>
-  <si>
-    <t>10 a 11</t>
-  </si>
-  <si>
-    <t>11 a 12</t>
-  </si>
-  <si>
-    <t>12  a 1</t>
-  </si>
-  <si>
-    <t>Baño y desayuno e higiene</t>
   </si>
   <si>
     <t>Dormir y dientes y pelo</t>
@@ -157,40 +89,28 @@
     <t>Dormido</t>
   </si>
   <si>
-    <t>Bañandome o desayunando y limpiandome</t>
-  </si>
-  <si>
     <t>Trabajando</t>
-  </si>
-  <si>
-    <t>Trabajando y break</t>
   </si>
   <si>
     <t>Comiendo</t>
   </si>
   <si>
-    <t>Haciendo Reto de programacion</t>
+    <t>Bañanadome y desyunando</t>
   </si>
   <si>
-    <t>Estudiando Ortografia e idioma</t>
+    <t>Valiendo verga</t>
   </si>
   <si>
-    <t>En Box</t>
+    <t>Haciendo reto de programacion</t>
   </si>
   <si>
-    <t>Valiendo Verga</t>
+    <t>Ejercicio</t>
   </si>
   <si>
-    <t>Cenando y limpiandome</t>
+    <t>En Break</t>
   </si>
   <si>
-    <t>Dormiendo y limpiandome</t>
-  </si>
-  <si>
-    <t>Afuera</t>
-  </si>
-  <si>
-    <t>Jugando Rol</t>
+    <t>prueba</t>
   </si>
 </sst>
 </file>
@@ -280,11 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -293,6 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,663 +529,663 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F22" sqref="F22:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>1</v>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1279,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD59C1A2-92B6-4584-ADD1-BEC4F87CA089}">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="L136" sqref="L136"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection sqref="A1:D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,16 +1212,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,11 +1231,11 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,11 +1245,11 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,11 +1259,11 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,11 +1273,11 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1368,11 +1287,11 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,11 +1301,11 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="10">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,11 +1315,11 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="10">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,11 +1329,11 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>39</v>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,11 +1343,11 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,11 +1357,11 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>41</v>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,11 +1371,11 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1466,11 +1385,11 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1480,11 +1399,11 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>41</v>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1494,11 +1413,11 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>13</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1508,11 +1427,11 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>14</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>41</v>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1522,11 +1441,11 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>41</v>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,11 +1455,11 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="10">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>44</v>
+      <c r="C18" s="8">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1550,11 +1469,11 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="10">
-        <v>17</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
+      <c r="C19" s="8">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,11 +1483,11 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,11 +1497,11 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>19</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>48</v>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,11 +1511,11 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="10">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
+      <c r="C22" s="8">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1606,11 +1525,11 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>21</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>47</v>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,11 +1539,11 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>22</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>39</v>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,11 +1553,11 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>23</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>39</v>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,11 +1567,11 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="10">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>39</v>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,11 +1581,11 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>39</v>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,11 +1595,11 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="10">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>39</v>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1690,11 +1609,11 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="10">
-        <v>3</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>39</v>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,11 +1623,11 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="10">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
+      <c r="C30" s="8">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,11 +1637,11 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="10">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>39</v>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1732,11 +1651,11 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="10">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
+      <c r="C32" s="8">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1746,11 +1665,11 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>7</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>39</v>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,11 +1679,11 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>8</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>40</v>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1774,11 +1693,11 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>9</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
+      <c r="D35" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,11 +1707,11 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>10</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>41</v>
+      <c r="D36" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1802,11 +1721,11 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>11</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>42</v>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1816,11 +1735,11 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>12</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>41</v>
+      <c r="D38" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1830,11 +1749,11 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>13</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>43</v>
+      <c r="D39" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1844,11 +1763,11 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>14</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>41</v>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1858,11 +1777,11 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <v>15</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>41</v>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1872,11 +1791,11 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="10">
-        <v>16</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>44</v>
+      <c r="C42" s="8">
+        <v>16</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1886,11 +1805,11 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="10">
-        <v>17</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>45</v>
+      <c r="C43" s="8">
+        <v>17</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1900,11 +1819,11 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>18</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>46</v>
+      <c r="D44" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1914,11 +1833,11 @@
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <v>19</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>48</v>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,11 +1847,11 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="10">
-        <v>20</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>47</v>
+      <c r="C46" s="8">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1942,11 +1861,11 @@
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>21</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>47</v>
+      <c r="D47" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1956,11 +1875,11 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <v>22</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>39</v>
+      <c r="D48" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1970,11 +1889,11 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>23</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>39</v>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1984,11 +1903,11 @@
       <c r="B50">
         <v>2</v>
       </c>
-      <c r="C50" s="10">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>39</v>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1998,11 +1917,11 @@
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="10">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>39</v>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2012,11 +1931,11 @@
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="10">
-        <v>2</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>39</v>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2026,11 +1945,11 @@
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="C53" s="10">
-        <v>3</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>39</v>
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2040,11 +1959,11 @@
       <c r="B54">
         <v>2</v>
       </c>
-      <c r="C54" s="10">
-        <v>4</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>39</v>
+      <c r="C54" s="8">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2054,11 +1973,11 @@
       <c r="B55">
         <v>2</v>
       </c>
-      <c r="C55" s="10">
-        <v>5</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>39</v>
+      <c r="C55" s="8">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2068,11 +1987,11 @@
       <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56" s="10">
-        <v>6</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>39</v>
+      <c r="C56" s="8">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2082,11 +2001,11 @@
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="8">
         <v>7</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>39</v>
+      <c r="D57" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2096,11 +2015,11 @@
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="8">
         <v>8</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>40</v>
+      <c r="D58" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2110,11 +2029,11 @@
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <v>9</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2124,11 +2043,11 @@
       <c r="B60">
         <v>2</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="8">
         <v>10</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>47</v>
+      <c r="D60" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2138,11 +2057,11 @@
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="8">
         <v>11</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>47</v>
+      <c r="D61" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2152,11 +2071,11 @@
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="8">
         <v>12</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>47</v>
+      <c r="D62" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2166,11 +2085,11 @@
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="8">
         <v>13</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>47</v>
+      <c r="D63" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2180,11 +2099,11 @@
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="8">
         <v>14</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>47</v>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2194,11 +2113,11 @@
       <c r="B65">
         <v>2</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="8">
         <v>15</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>47</v>
+      <c r="D65" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2208,11 +2127,11 @@
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66" s="10">
-        <v>16</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>44</v>
+      <c r="C66" s="8">
+        <v>16</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2222,11 +2141,11 @@
       <c r="B67">
         <v>2</v>
       </c>
-      <c r="C67" s="10">
-        <v>17</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>45</v>
+      <c r="C67" s="8">
+        <v>17</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2236,11 +2155,11 @@
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="8">
         <v>18</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>51</v>
+      <c r="D68" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2250,11 +2169,11 @@
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="8">
         <v>19</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>51</v>
+      <c r="D69" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2264,11 +2183,11 @@
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70" s="10">
-        <v>20</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>51</v>
+      <c r="C70" s="8">
+        <v>20</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2197,11 @@
       <c r="B71">
         <v>2</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="8">
         <v>21</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>51</v>
+      <c r="D71" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2292,11 +2211,11 @@
       <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="8">
         <v>22</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>51</v>
+      <c r="D72" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2306,11 +2225,11 @@
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="8">
         <v>23</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>49</v>
+      <c r="D73" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2320,11 +2239,11 @@
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74" s="10">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>39</v>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2334,11 +2253,11 @@
       <c r="B75">
         <v>3</v>
       </c>
-      <c r="C75" s="10">
-        <v>1</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>39</v>
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2348,11 +2267,11 @@
       <c r="B76">
         <v>3</v>
       </c>
-      <c r="C76" s="10">
-        <v>2</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>39</v>
+      <c r="C76" s="8">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2362,11 +2281,11 @@
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77" s="10">
-        <v>3</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>39</v>
+      <c r="C77" s="8">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2376,11 +2295,11 @@
       <c r="B78">
         <v>3</v>
       </c>
-      <c r="C78" s="10">
-        <v>4</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>39</v>
+      <c r="C78" s="8">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2390,11 +2309,11 @@
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79" s="10">
-        <v>5</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>39</v>
+      <c r="C79" s="8">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2404,11 +2323,11 @@
       <c r="B80">
         <v>3</v>
       </c>
-      <c r="C80" s="10">
-        <v>6</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>39</v>
+      <c r="C80" s="8">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2418,11 +2337,11 @@
       <c r="B81">
         <v>3</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="8">
         <v>7</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>39</v>
+      <c r="D81" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2432,11 +2351,11 @@
       <c r="B82">
         <v>3</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="8">
         <v>8</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>40</v>
+      <c r="D82" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2446,11 +2365,11 @@
       <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="8">
         <v>9</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>41</v>
+      <c r="D83" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2460,11 +2379,11 @@
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="8">
         <v>10</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>41</v>
+      <c r="D84" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2474,11 +2393,11 @@
       <c r="B85">
         <v>3</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="8">
         <v>11</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>42</v>
+      <c r="D85" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,11 +2407,11 @@
       <c r="B86">
         <v>3</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="8">
         <v>12</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>41</v>
+      <c r="D86" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2502,11 +2421,11 @@
       <c r="B87">
         <v>3</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="8">
         <v>13</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>43</v>
+      <c r="D87" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2516,11 +2435,11 @@
       <c r="B88">
         <v>3</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="8">
         <v>14</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>41</v>
+      <c r="D88" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2530,11 +2449,11 @@
       <c r="B89">
         <v>3</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="8">
         <v>15</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>41</v>
+      <c r="D89" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2544,11 +2463,11 @@
       <c r="B90">
         <v>3</v>
       </c>
-      <c r="C90" s="10">
-        <v>16</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>44</v>
+      <c r="C90" s="8">
+        <v>16</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2558,11 +2477,11 @@
       <c r="B91">
         <v>3</v>
       </c>
-      <c r="C91" s="10">
-        <v>17</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>45</v>
+      <c r="C91" s="8">
+        <v>17</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2572,11 +2491,11 @@
       <c r="B92">
         <v>3</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="8">
         <v>18</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>15</v>
+      <c r="D92" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2586,11 +2505,11 @@
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="8">
         <v>19</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>48</v>
+      <c r="D93" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2600,11 +2519,11 @@
       <c r="B94">
         <v>3</v>
       </c>
-      <c r="C94" s="10">
-        <v>20</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>47</v>
+      <c r="C94" s="8">
+        <v>20</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2614,11 +2533,11 @@
       <c r="B95">
         <v>3</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="8">
         <v>21</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>47</v>
+      <c r="D95" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2628,11 +2547,11 @@
       <c r="B96">
         <v>3</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="8">
         <v>22</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>39</v>
+      <c r="D96" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2642,11 +2561,11 @@
       <c r="B97">
         <v>3</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="8">
         <v>23</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>39</v>
+      <c r="D97" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2656,11 +2575,11 @@
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98" s="10">
-        <v>0</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>39</v>
+      <c r="C98" s="8">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2670,11 +2589,11 @@
       <c r="B99">
         <v>4</v>
       </c>
-      <c r="C99" s="10">
-        <v>1</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>39</v>
+      <c r="C99" s="8">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2684,11 +2603,11 @@
       <c r="B100">
         <v>4</v>
       </c>
-      <c r="C100" s="10">
-        <v>2</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>39</v>
+      <c r="C100" s="8">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2698,11 +2617,11 @@
       <c r="B101">
         <v>4</v>
       </c>
-      <c r="C101" s="10">
-        <v>3</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>39</v>
+      <c r="C101" s="8">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2712,11 +2631,11 @@
       <c r="B102">
         <v>4</v>
       </c>
-      <c r="C102" s="10">
-        <v>4</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>39</v>
+      <c r="C102" s="8">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2726,11 +2645,11 @@
       <c r="B103">
         <v>4</v>
       </c>
-      <c r="C103" s="10">
-        <v>5</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>39</v>
+      <c r="C103" s="8">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2740,11 +2659,11 @@
       <c r="B104">
         <v>4</v>
       </c>
-      <c r="C104" s="10">
-        <v>6</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>39</v>
+      <c r="C104" s="8">
+        <v>6</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2754,11 +2673,11 @@
       <c r="B105">
         <v>4</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="8">
         <v>7</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>39</v>
+      <c r="D105" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2768,11 +2687,11 @@
       <c r="B106">
         <v>4</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="8">
         <v>8</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>40</v>
+      <c r="D106" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2782,11 +2701,11 @@
       <c r="B107">
         <v>4</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="8">
         <v>9</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>41</v>
+      <c r="D107" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2796,11 +2715,11 @@
       <c r="B108">
         <v>4</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="8">
         <v>10</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>41</v>
+      <c r="D108" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2810,11 +2729,11 @@
       <c r="B109">
         <v>4</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="8">
         <v>11</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>42</v>
+      <c r="D109" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2824,11 +2743,11 @@
       <c r="B110">
         <v>4</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="8">
         <v>12</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>41</v>
+      <c r="D110" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2838,11 +2757,11 @@
       <c r="B111">
         <v>4</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="8">
         <v>13</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>43</v>
+      <c r="D111" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2852,11 +2771,11 @@
       <c r="B112">
         <v>4</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="8">
         <v>14</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>41</v>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2866,11 +2785,11 @@
       <c r="B113">
         <v>4</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="8">
         <v>15</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>41</v>
+      <c r="D113" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2880,11 +2799,11 @@
       <c r="B114">
         <v>4</v>
       </c>
-      <c r="C114" s="10">
-        <v>16</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>44</v>
+      <c r="C114" s="8">
+        <v>16</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2894,11 +2813,11 @@
       <c r="B115">
         <v>4</v>
       </c>
-      <c r="C115" s="10">
-        <v>17</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>45</v>
+      <c r="C115" s="8">
+        <v>17</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2908,11 +2827,11 @@
       <c r="B116">
         <v>4</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="8">
         <v>18</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>50</v>
+      <c r="D116" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2922,11 +2841,11 @@
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="8">
         <v>19</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>50</v>
+      <c r="D117" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2936,11 +2855,11 @@
       <c r="B118">
         <v>4</v>
       </c>
-      <c r="C118" s="10">
-        <v>20</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>50</v>
+      <c r="C118" s="8">
+        <v>20</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2950,11 +2869,11 @@
       <c r="B119">
         <v>4</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="8">
         <v>21</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>50</v>
+      <c r="D119" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2964,11 +2883,11 @@
       <c r="B120">
         <v>4</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="8">
         <v>22</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>50</v>
+      <c r="D120" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2978,11 +2897,11 @@
       <c r="B121">
         <v>4</v>
       </c>
-      <c r="C121" s="10">
+      <c r="C121" s="8">
         <v>23</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>50</v>
+      <c r="D121" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2992,11 +2911,11 @@
       <c r="B122">
         <v>5</v>
       </c>
-      <c r="C122" s="10">
-        <v>0</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>39</v>
+      <c r="C122" s="8">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3006,11 +2925,11 @@
       <c r="B123">
         <v>5</v>
       </c>
-      <c r="C123" s="10">
-        <v>1</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>39</v>
+      <c r="C123" s="8">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3020,11 +2939,11 @@
       <c r="B124">
         <v>5</v>
       </c>
-      <c r="C124" s="10">
-        <v>2</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>39</v>
+      <c r="C124" s="8">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3034,11 +2953,11 @@
       <c r="B125">
         <v>5</v>
       </c>
-      <c r="C125" s="10">
-        <v>3</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>39</v>
+      <c r="C125" s="8">
+        <v>3</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3048,11 +2967,11 @@
       <c r="B126">
         <v>5</v>
       </c>
-      <c r="C126" s="10">
-        <v>4</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>39</v>
+      <c r="C126" s="8">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3062,11 +2981,11 @@
       <c r="B127">
         <v>5</v>
       </c>
-      <c r="C127" s="10">
-        <v>5</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>39</v>
+      <c r="C127" s="8">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3076,11 +2995,11 @@
       <c r="B128">
         <v>5</v>
       </c>
-      <c r="C128" s="10">
-        <v>6</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>39</v>
+      <c r="C128" s="8">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3090,11 +3009,11 @@
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="8">
         <v>7</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>39</v>
+      <c r="D129" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3104,11 +3023,11 @@
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="8">
         <v>8</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>40</v>
+      <c r="D130" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3118,11 +3037,11 @@
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="8">
         <v>9</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>41</v>
+      <c r="D131" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3132,11 +3051,11 @@
       <c r="B132">
         <v>5</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="8">
         <v>10</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>41</v>
+      <c r="D132" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3146,11 +3065,11 @@
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="8">
         <v>11</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>42</v>
+      <c r="D133" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3160,11 +3079,11 @@
       <c r="B134">
         <v>5</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="8">
         <v>12</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>41</v>
+      <c r="D134" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3174,11 +3093,11 @@
       <c r="B135">
         <v>5</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="8">
         <v>13</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>43</v>
+      <c r="D135" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3188,11 +3107,11 @@
       <c r="B136">
         <v>5</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="8">
         <v>14</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>41</v>
+      <c r="D136" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3202,11 +3121,11 @@
       <c r="B137">
         <v>5</v>
       </c>
-      <c r="C137" s="10">
+      <c r="C137" s="8">
         <v>15</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>41</v>
+      <c r="D137" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3216,11 +3135,11 @@
       <c r="B138">
         <v>5</v>
       </c>
-      <c r="C138" s="10">
-        <v>16</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>44</v>
+      <c r="C138" s="8">
+        <v>16</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3230,11 +3149,11 @@
       <c r="B139">
         <v>5</v>
       </c>
-      <c r="C139" s="10">
-        <v>17</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>45</v>
+      <c r="C139" s="8">
+        <v>17</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3244,11 +3163,11 @@
       <c r="B140">
         <v>5</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="8">
         <v>18</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>46</v>
+      <c r="D140" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3258,11 +3177,11 @@
       <c r="B141">
         <v>5</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C141" s="8">
         <v>19</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>48</v>
+      <c r="D141" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3272,11 +3191,11 @@
       <c r="B142">
         <v>5</v>
       </c>
-      <c r="C142" s="10">
-        <v>20</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>47</v>
+      <c r="C142" s="8">
+        <v>20</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3286,11 +3205,11 @@
       <c r="B143">
         <v>5</v>
       </c>
-      <c r="C143" s="10">
+      <c r="C143" s="8">
         <v>21</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>47</v>
+      <c r="D143" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3300,11 +3219,11 @@
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="8">
         <v>22</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>39</v>
+      <c r="D144" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3314,11 +3233,11 @@
       <c r="B145">
         <v>5</v>
       </c>
-      <c r="C145" s="10">
+      <c r="C145" s="8">
         <v>23</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>39</v>
+      <c r="D145" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3328,11 +3247,11 @@
       <c r="B146">
         <v>6</v>
       </c>
-      <c r="C146" s="10">
-        <v>0</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>39</v>
+      <c r="C146" s="8">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3342,11 +3261,11 @@
       <c r="B147">
         <v>6</v>
       </c>
-      <c r="C147" s="10">
-        <v>1</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>39</v>
+      <c r="C147" s="8">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3356,11 +3275,11 @@
       <c r="B148">
         <v>6</v>
       </c>
-      <c r="C148" s="10">
-        <v>2</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>39</v>
+      <c r="C148" s="8">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3370,11 +3289,11 @@
       <c r="B149">
         <v>6</v>
       </c>
-      <c r="C149" s="10">
-        <v>3</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>39</v>
+      <c r="C149" s="8">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3384,11 +3303,11 @@
       <c r="B150">
         <v>6</v>
       </c>
-      <c r="C150" s="10">
-        <v>4</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>39</v>
+      <c r="C150" s="8">
+        <v>4</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3398,11 +3317,11 @@
       <c r="B151">
         <v>6</v>
       </c>
-      <c r="C151" s="10">
-        <v>5</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>39</v>
+      <c r="C151" s="8">
+        <v>5</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3412,11 +3331,11 @@
       <c r="B152">
         <v>6</v>
       </c>
-      <c r="C152" s="10">
-        <v>6</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>39</v>
+      <c r="C152" s="8">
+        <v>6</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3426,11 +3345,11 @@
       <c r="B153">
         <v>6</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="8">
         <v>7</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>39</v>
+      <c r="D153" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3440,11 +3359,11 @@
       <c r="B154">
         <v>6</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C154" s="8">
         <v>8</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>40</v>
+      <c r="D154" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3454,11 +3373,11 @@
       <c r="B155">
         <v>6</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="8">
         <v>9</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3468,11 +3387,11 @@
       <c r="B156">
         <v>6</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="8">
         <v>10</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>47</v>
+      <c r="D156" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3482,11 +3401,11 @@
       <c r="B157">
         <v>6</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C157" s="8">
         <v>11</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>47</v>
+      <c r="D157" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3496,11 +3415,11 @@
       <c r="B158">
         <v>6</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="8">
         <v>12</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>47</v>
+      <c r="D158" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3510,11 +3429,11 @@
       <c r="B159">
         <v>6</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="8">
         <v>13</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>47</v>
+      <c r="D159" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3524,11 +3443,11 @@
       <c r="B160">
         <v>6</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="8">
         <v>14</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>47</v>
+      <c r="D160" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3538,11 +3457,11 @@
       <c r="B161">
         <v>6</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="8">
         <v>15</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>47</v>
+      <c r="D161" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3552,11 +3471,11 @@
       <c r="B162">
         <v>6</v>
       </c>
-      <c r="C162" s="10">
-        <v>16</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>44</v>
+      <c r="C162" s="8">
+        <v>16</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3566,11 +3485,11 @@
       <c r="B163">
         <v>6</v>
       </c>
-      <c r="C163" s="10">
-        <v>17</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>45</v>
+      <c r="C163" s="8">
+        <v>17</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3580,11 +3499,11 @@
       <c r="B164">
         <v>6</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C164" s="8">
         <v>18</v>
       </c>
-      <c r="D164" s="8" t="s">
-        <v>46</v>
+      <c r="D164" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3594,11 +3513,11 @@
       <c r="B165">
         <v>6</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C165" s="8">
         <v>19</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>48</v>
+      <c r="D165" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3608,11 +3527,11 @@
       <c r="B166">
         <v>6</v>
       </c>
-      <c r="C166" s="10">
-        <v>20</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>47</v>
+      <c r="C166" s="8">
+        <v>20</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3622,11 +3541,11 @@
       <c r="B167">
         <v>6</v>
       </c>
-      <c r="C167" s="10">
+      <c r="C167" s="8">
         <v>21</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>47</v>
+      <c r="D167" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3636,11 +3555,11 @@
       <c r="B168">
         <v>6</v>
       </c>
-      <c r="C168" s="10">
+      <c r="C168" s="8">
         <v>22</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>39</v>
+      <c r="D168" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3650,18 +3569,2399 @@
       <c r="B169">
         <v>6</v>
       </c>
-      <c r="C169" s="10">
+      <c r="C169" s="8">
         <v>23</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>39</v>
+      <c r="D169" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C170" s="11"/>
+      <c r="C170" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05ABCBA-CB7C-4908-BCB2-26B39247C97C}">
+  <dimension ref="A1:D169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
+        <v>13</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8">
+        <v>15</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
+        <v>16</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>17</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8">
+        <v>18</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8">
+        <v>19</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="8">
+        <v>22</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="8">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="8">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="8">
+        <v>8</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>9</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" s="8">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" s="8">
+        <v>11</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="8">
+        <v>12</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="8">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8">
+        <v>15</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="8">
+        <v>16</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" s="8">
+        <v>17</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="8">
+        <v>18</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8">
+        <v>19</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="8">
+        <v>20</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" s="8">
+        <v>21</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8">
+        <v>22</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="8">
+        <v>23</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="8">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" s="8">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="8">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" s="8">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" s="8">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" s="8">
+        <v>7</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="8">
+        <v>8</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" s="8">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" s="8">
+        <v>10</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" s="8">
+        <v>11</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" s="8">
+        <v>12</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" s="8">
+        <v>13</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" s="8">
+        <v>14</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" s="8">
+        <v>15</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" s="8">
+        <v>16</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" s="8">
+        <v>17</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" s="8">
+        <v>18</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" s="8">
+        <v>19</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" s="8">
+        <v>20</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" s="8">
+        <v>21</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" s="8">
+        <v>22</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" s="8">
+        <v>23</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" s="8">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" s="8">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" s="8">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" s="8">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" s="8">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" s="8">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" s="8">
+        <v>6</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" s="8">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" s="8">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" s="8">
+        <v>9</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" s="8">
+        <v>10</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" s="8">
+        <v>11</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" s="8">
+        <v>12</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" s="8">
+        <v>13</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" s="8">
+        <v>14</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" s="8">
+        <v>15</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" s="8">
+        <v>16</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" s="8">
+        <v>17</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" s="8">
+        <v>18</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" s="8">
+        <v>19</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" s="8">
+        <v>20</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" s="8">
+        <v>21</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" s="8">
+        <v>22</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" s="8">
+        <v>23</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122" s="8">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" s="8">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" s="8">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>10</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" s="8">
+        <v>3</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126" s="8">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" s="8">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" s="8">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129" s="8">
+        <v>7</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" s="8">
+        <v>8</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" s="8">
+        <v>9</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" s="8">
+        <v>10</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" s="8">
+        <v>11</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" s="8">
+        <v>12</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" s="8">
+        <v>13</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" s="8">
+        <v>14</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" s="8">
+        <v>15</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" s="8">
+        <v>16</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" s="8">
+        <v>17</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140" s="8">
+        <v>18</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" s="8">
+        <v>19</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" s="8">
+        <v>20</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" s="8">
+        <v>21</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144" s="8">
+        <v>22</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" s="8">
+        <v>23</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146" s="8">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147" s="8">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148" s="8">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" s="8">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150" s="8">
+        <v>4</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" s="8">
+        <v>5</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" s="8">
+        <v>6</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153" s="8">
+        <v>7</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" s="8">
+        <v>8</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155" s="8">
+        <v>9</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156" s="8">
+        <v>10</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" s="8">
+        <v>11</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158" s="8">
+        <v>12</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159" s="8">
+        <v>13</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6</v>
+      </c>
+      <c r="C160" s="8">
+        <v>14</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161" s="8">
+        <v>15</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162" s="8">
+        <v>16</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163" s="8">
+        <v>17</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>6</v>
+      </c>
+      <c r="C164" s="8">
+        <v>18</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="C165" s="8">
+        <v>19</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166" s="8">
+        <v>20</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="C167" s="8">
+        <v>21</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168" s="8">
+        <v>22</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>6</v>
+      </c>
+      <c r="C169" s="8">
+        <v>23</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>